--- a/Section02/Geometry/Seccion.xlsx
+++ b/Section02/Geometry/Seccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HRAS\Section02\Geometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158523BD-8616-4A73-A918-B6EDAED1BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175469C3-0664-4473-A9F9-3E6790F9015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C43E061-F1D1-40BE-B931-3B292B341096}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C43E061-F1D1-40BE-B931-3B292B341096}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1771,13 +1771,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1807,13 +1807,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611187</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
@@ -2144,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA96F8D3-93D6-452E-9B8C-158C2804FCEE}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Section02/Geometry/Seccion.xlsx
+++ b/Section02/Geometry/Seccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HRAS\Section02\Geometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175469C3-0664-4473-A9F9-3E6790F9015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A35F7-02F0-466C-AECF-E43717287D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C43E061-F1D1-40BE-B931-3B292B341096}"/>
+    <workbookView xWindow="32340" yWindow="1545" windowWidth="21600" windowHeight="12885" xr2:uid="{3C43E061-F1D1-40BE-B931-3B292B341096}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>So</t>
+  </si>
+  <si>
+    <t>||</t>
   </si>
 </sst>
 </file>
@@ -2142,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA96F8D3-93D6-452E-9B8C-158C2804FCEE}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2236,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1000</v>
       </c>
@@ -2260,13 +2263,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="4">
         <f>+B20/A20</f>
         <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
